--- a/examples/data1.xlsx
+++ b/examples/data1.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17766"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18067"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pablo\Dropbox\Workspace\Matlab\granulometria-gui\examples\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pablo\Dropbox\Workspace\Matlab\granulometria-gui\examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18036" windowHeight="7068"/>
+    <workbookView xWindow="0" yWindow="912" windowWidth="18036" windowHeight="7068"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Malla</t>
   </si>
@@ -63,12 +63,22 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>1 1/2"</t>
+  </si>
+  <si>
+    <t>#50</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -98,9 +108,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -417,10 +433,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="C2" sqref="C2:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -443,100 +459,122 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1">
-        <v>25.4</v>
-      </c>
-      <c r="C2" s="1">
-        <v>294</v>
+        <v>13</v>
+      </c>
+      <c r="B2" s="2">
+        <v>37.5</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1">
-        <v>4.75</v>
-      </c>
-      <c r="C3" s="1">
-        <v>225</v>
+        <v>3</v>
+      </c>
+      <c r="B3" s="2">
+        <v>25</v>
+      </c>
+      <c r="C3" s="3">
+        <v>294</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="1">
-        <v>2</v>
-      </c>
-      <c r="C4" s="1">
-        <v>750</v>
+        <v>4</v>
+      </c>
+      <c r="B4" s="2">
+        <v>4.75</v>
+      </c>
+      <c r="C4" s="3">
+        <v>225</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="1">
-        <v>0.85</v>
-      </c>
-      <c r="C5" s="1">
-        <v>405</v>
+        <v>5</v>
+      </c>
+      <c r="B5" s="2">
+        <v>2</v>
+      </c>
+      <c r="C5" s="3">
+        <v>750</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="1">
-        <v>0.42499999999999999</v>
-      </c>
-      <c r="C6" s="1">
-        <v>165</v>
+        <v>6</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="C6" s="3">
+        <v>405</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="C7" s="1">
-        <v>189</v>
+        <v>7</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="C7" s="3">
+        <v>165</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="1">
-        <v>0.15</v>
-      </c>
-      <c r="C8" s="1">
-        <v>174</v>
+        <v>14</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="1">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="C9" s="1">
-        <v>336</v>
+        <v>8</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="C9" s="3">
+        <v>189</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="C10" s="3">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="C11" s="3">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C12" s="3">
         <v>239</v>
       </c>
     </row>

--- a/examples/data1.xlsx
+++ b/examples/data1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="912" windowWidth="18036" windowHeight="7068"/>
+    <workbookView xWindow="0" yWindow="1368" windowWidth="18036" windowHeight="7068"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -77,7 +77,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
-    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -116,7 +116,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -436,7 +436,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C12"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
